--- a/data/trans_orig/P13A_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P13A_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D48303D9-2EE5-4489-AB5C-BFEAC0A69EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E869A0D0-2588-4A95-9603-FBFA00DF5B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4AE743D9-D0B3-4B88-AD49-B5480D0DAE7B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7374BA62-48BD-4B83-8195-7E1724C8A417}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Población que sufre dolor de cabeza 15 días o más al mes en 2023 (Tasa respuesta: 99,52%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>1,87%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
   </si>
   <si>
     <t>6,31%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
   </si>
   <si>
     <t>4,56%</t>
   </si>
   <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>98,13%</t>
   </si>
   <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
   </si>
   <si>
     <t>93,69%</t>
   </si>
   <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
   </si>
   <si>
     <t>95,44%</t>
   </si>
   <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>1,22%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
   </si>
   <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
   </si>
   <si>
     <t>98,78%</t>
   </si>
   <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
   </si>
   <si>
     <t>96,02%</t>
   </si>
   <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
   </si>
   <si>
     <t>97,37%</t>
   </si>
   <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,52 +197,58 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>1,2%</t>
+  </si>
+  <si>
     <t>3,64%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
   </si>
   <si>
     <t>2,05%</t>
   </si>
   <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
   </si>
   <si>
     <t>99,62%</t>
   </si>
   <si>
+    <t>98,8%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
     <t>96,36%</t>
   </si>
   <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
   </si>
   <si>
     <t>97,95%</t>
   </si>
   <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>0,8%</t>
+    <t>0,81%</t>
   </si>
   <si>
     <t>1,57%</t>
@@ -254,13 +260,16 @@
     <t>3,81%</t>
   </si>
   <si>
-    <t>5,34%</t>
+    <t>5,26%</t>
   </si>
   <si>
     <t>2,89%</t>
   </si>
   <si>
-    <t>2,52%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
   </si>
   <si>
     <t>98,85%</t>
@@ -269,13 +278,13 @@
     <t>98,43%</t>
   </si>
   <si>
-    <t>99,2%</t>
+    <t>99,19%</t>
   </si>
   <si>
     <t>95,57%</t>
   </si>
   <si>
-    <t>94,66%</t>
+    <t>94,74%</t>
   </si>
   <si>
     <t>96,19%</t>
@@ -284,7 +293,10 @@
     <t>97,11%</t>
   </si>
   <si>
-    <t>97,48%</t>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -699,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D669C9-4231-4500-A7BB-6F6E7427E3A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DB0C92-98A5-4E36-86E6-FC857C03A55B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1139,7 +1151,7 @@
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -1148,13 +1160,13 @@
         <v>25886</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -1163,13 +1175,13 @@
         <v>28440</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1184,13 +1196,13 @@
         <v>669812</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>969</v>
@@ -1199,13 +1211,13 @@
         <v>686153</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1647</v>
@@ -1214,13 +1226,13 @@
         <v>1355964</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1288,13 +1300,13 @@
         <v>38855</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>228</v>
@@ -1303,13 +1315,13 @@
         <v>167590</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>270</v>
@@ -1318,13 +1330,13 @@
         <v>206444</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1339,13 +1351,13 @@
         <v>3325555</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>5100</v>
@@ -1354,13 +1366,13 @@
         <v>3616478</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>8408</v>
@@ -1369,13 +1381,13 @@
         <v>6942034</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1431,7 +1443,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P13A_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P13A_R-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E869A0D0-2588-4A95-9603-FBFA00DF5B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6816583F-34CE-4566-B813-0AD5B1613435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7374BA62-48BD-4B83-8195-7E1724C8A417}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A89E646D-CB3E-4A88-955B-250BB129BAA5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DB0C92-98A5-4E36-86E6-FC857C03A55B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A49AD17-5754-410F-8A80-0BBD8B6D4038}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P13A_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P13A_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6816583F-34CE-4566-B813-0AD5B1613435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E76DD8D-980E-415C-81A0-191F33282AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A89E646D-CB3E-4A88-955B-250BB129BAA5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B8A69D70-B6F7-4072-BDCA-177D61821733}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
   <si>
     <t>Población que sufre dolor de cabeza 15 días o más al mes en 2023 (Tasa respuesta: 99,52%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>1,87%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
   </si>
   <si>
     <t>6,31%</t>
   </si>
   <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
   </si>
   <si>
     <t>4,56%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>98,13%</t>
   </si>
   <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
   </si>
   <si>
     <t>93,69%</t>
   </si>
   <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
   </si>
   <si>
     <t>95,44%</t>
   </si>
   <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>1,22%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
   </si>
   <si>
     <t>3,98%</t>
   </si>
   <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
     <t>98,78%</t>
   </si>
   <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
   </si>
   <si>
     <t>96,02%</t>
   </si>
   <si>
-    <t>95,14%</t>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
   </si>
   <si>
     <t>96,82%</t>
   </si>
   <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
+    <t>97,82%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,58 +197,52 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
     <t>3,64%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
   </si>
   <si>
     <t>2,05%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
   </si>
   <si>
     <t>99,62%</t>
   </si>
   <si>
-    <t>98,8%</t>
-  </si>
-  <si>
     <t>100,0%</t>
   </si>
   <si>
     <t>96,36%</t>
   </si>
   <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
   </si>
   <si>
     <t>97,95%</t>
   </si>
   <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>0,81%</t>
+    <t>0,8%</t>
   </si>
   <si>
     <t>1,57%</t>
@@ -260,16 +254,13 @@
     <t>3,81%</t>
   </si>
   <si>
-    <t>5,26%</t>
+    <t>5,34%</t>
   </si>
   <si>
     <t>2,89%</t>
   </si>
   <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
+    <t>2,52%</t>
   </si>
   <si>
     <t>98,85%</t>
@@ -278,13 +269,13 @@
     <t>98,43%</t>
   </si>
   <si>
-    <t>99,19%</t>
+    <t>99,2%</t>
   </si>
   <si>
     <t>95,57%</t>
   </si>
   <si>
-    <t>94,74%</t>
+    <t>94,66%</t>
   </si>
   <si>
     <t>96,19%</t>
@@ -293,10 +284,7 @@
     <t>97,11%</t>
   </si>
   <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
+    <t>97,48%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A49AD17-5754-410F-8A80-0BBD8B6D4038}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F67C2ED-F7A8-4E1F-B4D3-23297EC78781}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1151,7 +1139,7 @@
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -1160,13 +1148,13 @@
         <v>25886</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -1175,13 +1163,13 @@
         <v>28440</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1196,13 +1184,13 @@
         <v>669812</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>969</v>
@@ -1211,13 +1199,13 @@
         <v>686153</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1647</v>
@@ -1226,13 +1214,13 @@
         <v>1355964</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1300,13 +1288,13 @@
         <v>38855</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>228</v>
@@ -1315,13 +1303,13 @@
         <v>167590</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>270</v>
@@ -1330,13 +1318,13 @@
         <v>206444</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1351,13 +1339,13 @@
         <v>3325555</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>5100</v>
@@ -1366,13 +1354,13 @@
         <v>3616478</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>8408</v>
@@ -1381,13 +1369,13 @@
         <v>6942034</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1443,7 +1431,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P13A_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P13A_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E76DD8D-980E-415C-81A0-191F33282AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F6ECF24-B07A-4143-BA5B-FA2B9F71A9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B8A69D70-B6F7-4072-BDCA-177D61821733}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{85D03A37-80DC-4F9D-ACE5-DB15973E1F56}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Población que sufre dolor de cabeza 15 días o más al mes en 2023 (Tasa respuesta: 99,52%)</t>
   </si>
@@ -71,220 +71,232 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
   </si>
   <si>
     <t>98,13%</t>
   </si>
   <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>0,38%</t>
+    <t>0,36%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -699,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F67C2ED-F7A8-4E1F-B4D3-23297EC78781}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB458F2-DE9F-43C5-8E78-B16C429EB42F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -820,7 +832,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>10121</v>
+        <v>9686</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -835,7 +847,7 @@
         <v>73</v>
       </c>
       <c r="I4" s="7">
-        <v>52454</v>
+        <v>45992</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -850,7 +862,7 @@
         <v>87</v>
       </c>
       <c r="N4" s="7">
-        <v>62575</v>
+        <v>55678</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -871,7 +883,7 @@
         <v>676</v>
       </c>
       <c r="D5" s="7">
-        <v>531152</v>
+        <v>504911</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -886,7 +898,7 @@
         <v>1345</v>
       </c>
       <c r="I5" s="7">
-        <v>778780</v>
+        <v>705155</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -901,7 +913,7 @@
         <v>2021</v>
       </c>
       <c r="N5" s="7">
-        <v>1309933</v>
+        <v>1210066</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -922,7 +934,7 @@
         <v>690</v>
       </c>
       <c r="D6" s="7">
-        <v>541273</v>
+        <v>514597</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -937,7 +949,7 @@
         <v>1418</v>
       </c>
       <c r="I6" s="7">
-        <v>831234</v>
+        <v>751147</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -952,7 +964,7 @@
         <v>2108</v>
       </c>
       <c r="N6" s="7">
-        <v>1372508</v>
+        <v>1265744</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -975,7 +987,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="7">
-        <v>26179</v>
+        <v>25372</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -990,7 +1002,7 @@
         <v>122</v>
       </c>
       <c r="I7" s="7">
-        <v>89249</v>
+        <v>81770</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1005,7 +1017,7 @@
         <v>148</v>
       </c>
       <c r="N7" s="7">
-        <v>115428</v>
+        <v>107142</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1026,7 +1038,7 @@
         <v>1954</v>
       </c>
       <c r="D8" s="7">
-        <v>2124593</v>
+        <v>2254338</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1041,7 +1053,7 @@
         <v>2786</v>
       </c>
       <c r="I8" s="7">
-        <v>2151546</v>
+        <v>2148348</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1056,7 +1068,7 @@
         <v>4740</v>
       </c>
       <c r="N8" s="7">
-        <v>4276138</v>
+        <v>4402686</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1077,7 +1089,7 @@
         <v>1980</v>
       </c>
       <c r="D9" s="7">
-        <v>2150772</v>
+        <v>2279710</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1092,7 +1104,7 @@
         <v>2908</v>
       </c>
       <c r="I9" s="7">
-        <v>2240795</v>
+        <v>2230118</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1107,7 +1119,7 @@
         <v>4888</v>
       </c>
       <c r="N9" s="7">
-        <v>4391566</v>
+        <v>4509828</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1130,7 +1142,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>2554</v>
+        <v>2336</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1139,37 +1151,37 @@
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
       </c>
       <c r="I10" s="7">
-        <v>25886</v>
+        <v>23481</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
       </c>
       <c r="N10" s="7">
-        <v>28440</v>
+        <v>25817</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1181,46 +1193,46 @@
         <v>678</v>
       </c>
       <c r="D11" s="7">
-        <v>669812</v>
+        <v>643660</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>969</v>
       </c>
       <c r="I11" s="7">
-        <v>686153</v>
+        <v>635240</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1647</v>
       </c>
       <c r="N11" s="7">
-        <v>1355964</v>
+        <v>1278900</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1232,7 +1244,7 @@
         <v>680</v>
       </c>
       <c r="D12" s="7">
-        <v>672366</v>
+        <v>645996</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1247,7 +1259,7 @@
         <v>1002</v>
       </c>
       <c r="I12" s="7">
-        <v>712039</v>
+        <v>658721</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1262,7 +1274,7 @@
         <v>1682</v>
       </c>
       <c r="N12" s="7">
-        <v>1384404</v>
+        <v>1304717</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1285,46 +1297,46 @@
         <v>42</v>
       </c>
       <c r="D13" s="7">
-        <v>38855</v>
+        <v>37393</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>228</v>
       </c>
       <c r="I13" s="7">
-        <v>167590</v>
+        <v>151244</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>270</v>
       </c>
       <c r="N13" s="7">
-        <v>206444</v>
+        <v>188637</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1336,46 +1348,46 @@
         <v>3308</v>
       </c>
       <c r="D14" s="7">
-        <v>3325555</v>
+        <v>3402911</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>5100</v>
       </c>
       <c r="I14" s="7">
-        <v>3616478</v>
+        <v>3488741</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>8408</v>
       </c>
       <c r="N14" s="7">
-        <v>6942034</v>
+        <v>6891652</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1387,7 +1399,7 @@
         <v>3350</v>
       </c>
       <c r="D15" s="7">
-        <v>3364410</v>
+        <v>3440304</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1402,7 +1414,7 @@
         <v>5328</v>
       </c>
       <c r="I15" s="7">
-        <v>3784068</v>
+        <v>3639985</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1417,7 +1429,7 @@
         <v>8678</v>
       </c>
       <c r="N15" s="7">
-        <v>7148478</v>
+        <v>7080289</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1431,7 +1443,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
